--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/6/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/6/FD_Curve.xlsx
@@ -499,10 +499,10 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.39038</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>4390.38</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.34166</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>5341.66</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.09561</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>6095.61</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
@@ -532,285 +532,285 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>6.91253</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>6912.53</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247919</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>7.60303</v>
+        <v>8.920579999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>7603.03</v>
+        <v>8920.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278844</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>8.26792</v>
+        <v>10.0022</v>
       </c>
       <c r="C11" t="n">
-        <v>8267.92</v>
+        <v>10002.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309787</v>
+        <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>8.891959999999999</v>
+        <v>10.8666</v>
       </c>
       <c r="C12" t="n">
-        <v>8891.959999999999</v>
+        <v>10866.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340712</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>9.44617</v>
+        <v>11.4836</v>
       </c>
       <c r="C13" t="n">
-        <v>9446.17</v>
+        <v>11483.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371637</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>9.94083</v>
+        <v>12.0951</v>
       </c>
       <c r="C14" t="n">
-        <v>9940.83</v>
+        <v>12095.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402562</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>10.3903</v>
+        <v>12.5174</v>
       </c>
       <c r="C15" t="n">
-        <v>10390.3</v>
+        <v>12517.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433487</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>10.8049</v>
+        <v>12.9376</v>
       </c>
       <c r="C16" t="n">
-        <v>10804.9</v>
+        <v>12937.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464408</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>11.0499</v>
+        <v>13.2298</v>
       </c>
       <c r="C17" t="n">
-        <v>11049.9</v>
+        <v>13229.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495333</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>11.1941</v>
+        <v>13.464</v>
       </c>
       <c r="C18" t="n">
-        <v>11194.1</v>
+        <v>13464</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526258</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>11.1907</v>
+        <v>13.6262</v>
       </c>
       <c r="C19" t="n">
-        <v>11190.7</v>
+        <v>13626.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557183</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>11.1537</v>
+        <v>13.7019</v>
       </c>
       <c r="C20" t="n">
-        <v>11153.7</v>
+        <v>13701.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588108</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>11.1096</v>
+        <v>13.7345</v>
       </c>
       <c r="C21" t="n">
-        <v>11109.6</v>
+        <v>13734.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.61915</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>11.0625</v>
+        <v>13.7129</v>
       </c>
       <c r="C22" t="n">
-        <v>11062.5</v>
+        <v>13712.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650327</v>
+        <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>11.013</v>
+        <v>13.6717</v>
       </c>
       <c r="C23" t="n">
-        <v>11013</v>
+        <v>13671.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6815</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>10.9612</v>
+        <v>13.6223</v>
       </c>
       <c r="C24" t="n">
-        <v>10961.2</v>
+        <v>13622.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712672</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>10.9043</v>
+        <v>13.5682</v>
       </c>
       <c r="C25" t="n">
-        <v>10904.3</v>
+        <v>13568.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743849</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>10.8412</v>
+        <v>13.5109</v>
       </c>
       <c r="C26" t="n">
-        <v>10841.2</v>
+        <v>13510.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775022</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>10.7758</v>
+        <v>13.451</v>
       </c>
       <c r="C27" t="n">
-        <v>10775.8</v>
+        <v>13451</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806194</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>10.7027</v>
+        <v>13.3866</v>
       </c>
       <c r="C28" t="n">
-        <v>10702.7</v>
+        <v>13386.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837371</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>10.6263</v>
+        <v>13.314</v>
       </c>
       <c r="C29" t="n">
-        <v>10626.3</v>
+        <v>13314</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868544</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>10.546</v>
+        <v>13.2393</v>
       </c>
       <c r="C30" t="n">
-        <v>10546</v>
+        <v>13239.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899716</v>
+        <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>10.4587</v>
+        <v>13.1551</v>
       </c>
       <c r="C31" t="n">
-        <v>10458.7</v>
+        <v>13155.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930893</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>10.3704</v>
+        <v>13.0681</v>
       </c>
       <c r="C32" t="n">
-        <v>10370.4</v>
+        <v>13068.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962066</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>10.2717</v>
+        <v>12.9726</v>
       </c>
       <c r="C33" t="n">
-        <v>10271.7</v>
+        <v>12972.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993243</v>
+        <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>10.1732</v>
+        <v>12.8721</v>
       </c>
       <c r="C34" t="n">
-        <v>10173.2</v>
+        <v>12872.1</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>1.02426</v>
       </c>
       <c r="B35" t="n">
-        <v>10.0656</v>
+        <v>12.7653</v>
       </c>
       <c r="C35" t="n">
-        <v>10065.6</v>
+        <v>12765.3</v>
       </c>
     </row>
     <row r="36">
@@ -829,32 +829,32 @@
         <v>1.05523</v>
       </c>
       <c r="B36" t="n">
-        <v>9.9565</v>
+        <v>12.6508</v>
       </c>
       <c r="C36" t="n">
-        <v>9956.5</v>
+        <v>12650.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0862</v>
+        <v>1.08619</v>
       </c>
       <c r="B37" t="n">
-        <v>9.84047</v>
+        <v>12.5318</v>
       </c>
       <c r="C37" t="n">
-        <v>9840.469999999999</v>
+        <v>12531.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11717</v>
+        <v>1.11716</v>
       </c>
       <c r="B38" t="n">
-        <v>9.719379999999999</v>
+        <v>12.4022</v>
       </c>
       <c r="C38" t="n">
-        <v>9719.379999999999</v>
+        <v>12402.2</v>
       </c>
     </row>
     <row r="39">
@@ -862,703 +862,703 @@
         <v>1.14813</v>
       </c>
       <c r="B39" t="n">
-        <v>9.595469999999999</v>
+        <v>12.2704</v>
       </c>
       <c r="C39" t="n">
-        <v>9595.469999999999</v>
+        <v>12270.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17912</v>
+        <v>1.1791</v>
       </c>
       <c r="B40" t="n">
-        <v>1.40488</v>
+        <v>12.1274</v>
       </c>
       <c r="C40" t="n">
-        <v>1404.88</v>
+        <v>12127.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.20997</v>
+        <v>1.21007</v>
       </c>
       <c r="B41" t="n">
-        <v>5.61965</v>
+        <v>11.981</v>
       </c>
       <c r="C41" t="n">
-        <v>5619.65</v>
+        <v>11981</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24069</v>
+        <v>1.24103</v>
       </c>
       <c r="B42" t="n">
-        <v>8.85852</v>
+        <v>11.8254</v>
       </c>
       <c r="C42" t="n">
-        <v>8858.52</v>
+        <v>11825.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27121</v>
+        <v>1.27209</v>
       </c>
       <c r="B43" t="n">
-        <v>8.66873</v>
+        <v>11.7097</v>
       </c>
       <c r="C43" t="n">
-        <v>8668.73</v>
+        <v>11709.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30267</v>
+        <v>1.30281</v>
       </c>
       <c r="B44" t="n">
-        <v>8.888959999999999</v>
+        <v>10.9136</v>
       </c>
       <c r="C44" t="n">
-        <v>8888.959999999999</v>
+        <v>10913.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33361</v>
+        <v>1.33352</v>
       </c>
       <c r="B45" t="n">
-        <v>9.09789</v>
+        <v>8.935559999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>9097.889999999999</v>
+        <v>8935.559999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36444</v>
+        <v>1.36481</v>
       </c>
       <c r="B46" t="n">
-        <v>8.95308</v>
+        <v>10.8296</v>
       </c>
       <c r="C46" t="n">
-        <v>8953.08</v>
+        <v>10829.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39564</v>
+        <v>1.39607</v>
       </c>
       <c r="B47" t="n">
-        <v>8.70351</v>
+        <v>11.5053</v>
       </c>
       <c r="C47" t="n">
-        <v>8703.51</v>
+        <v>11505.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42641</v>
+        <v>1.42685</v>
       </c>
       <c r="B48" t="n">
-        <v>8.47752</v>
+        <v>11.3338</v>
       </c>
       <c r="C48" t="n">
-        <v>8477.52</v>
+        <v>11333.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45768</v>
+        <v>1.45807</v>
       </c>
       <c r="B49" t="n">
-        <v>8.38428</v>
+        <v>11.1547</v>
       </c>
       <c r="C49" t="n">
-        <v>8384.280000000001</v>
+        <v>11154.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48908</v>
+        <v>1.48905</v>
       </c>
       <c r="B50" t="n">
-        <v>8.21584</v>
+        <v>10.8871</v>
       </c>
       <c r="C50" t="n">
-        <v>8215.84</v>
+        <v>10887.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52013</v>
+        <v>1.51987</v>
       </c>
       <c r="B51" t="n">
-        <v>7.9938</v>
+        <v>10.6907</v>
       </c>
       <c r="C51" t="n">
-        <v>7993.8</v>
+        <v>10690.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55118</v>
+        <v>1.55117</v>
       </c>
       <c r="B52" t="n">
-        <v>7.910520000000001</v>
+        <v>10.4979</v>
       </c>
       <c r="C52" t="n">
-        <v>7910.52</v>
+        <v>10497.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58222</v>
+        <v>1.58219</v>
       </c>
       <c r="B53" t="n">
-        <v>7.78364</v>
+        <v>10.2167</v>
       </c>
       <c r="C53" t="n">
-        <v>7783.64</v>
+        <v>10216.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61304</v>
+        <v>1.6132</v>
       </c>
       <c r="B54" t="n">
-        <v>7.59689</v>
+        <v>10.0706</v>
       </c>
       <c r="C54" t="n">
-        <v>7596.89</v>
+        <v>10070.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64431</v>
+        <v>1.64423</v>
       </c>
       <c r="B55" t="n">
-        <v>7.32251</v>
+        <v>9.91488</v>
       </c>
       <c r="C55" t="n">
-        <v>7322.51</v>
+        <v>9914.879999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67496</v>
+        <v>1.67509</v>
       </c>
       <c r="B56" t="n">
-        <v>7.192460000000001</v>
+        <v>9.70191</v>
       </c>
       <c r="C56" t="n">
-        <v>7192.46</v>
+        <v>9701.91</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70627</v>
+        <v>1.70638</v>
       </c>
       <c r="B57" t="n">
-        <v>7.05746</v>
+        <v>9.347200000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>7057.46</v>
+        <v>9347.200000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73701</v>
+        <v>1.73711</v>
       </c>
       <c r="B58" t="n">
-        <v>6.95767</v>
+        <v>9.183020000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>6957.67</v>
+        <v>9183.02</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76817</v>
+        <v>1.76835</v>
       </c>
       <c r="B59" t="n">
-        <v>6.78668</v>
+        <v>9.00736</v>
       </c>
       <c r="C59" t="n">
-        <v>6786.68</v>
+        <v>9007.360000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79916</v>
+        <v>1.79917</v>
       </c>
       <c r="B60" t="n">
-        <v>6.627520000000001</v>
+        <v>8.879760000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>6627.52</v>
+        <v>8879.76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82999</v>
+        <v>1.83034</v>
       </c>
       <c r="B61" t="n">
-        <v>6.48511</v>
+        <v>8.61951</v>
       </c>
       <c r="C61" t="n">
-        <v>6485.11</v>
+        <v>8619.51</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86137</v>
+        <v>1.86127</v>
       </c>
       <c r="B62" t="n">
-        <v>6.41569</v>
+        <v>8.39893</v>
       </c>
       <c r="C62" t="n">
-        <v>6415.69</v>
+        <v>8398.93</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89211</v>
+        <v>1.89223</v>
       </c>
       <c r="B63" t="n">
-        <v>6.30673</v>
+        <v>8.19346</v>
       </c>
       <c r="C63" t="n">
-        <v>6306.73</v>
+        <v>8193.459999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92319</v>
+        <v>1.92342</v>
       </c>
       <c r="B64" t="n">
-        <v>6.18113</v>
+        <v>8.106859999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>6181.13</v>
+        <v>8106.86</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95436</v>
+        <v>1.95395</v>
       </c>
       <c r="B65" t="n">
-        <v>6.04955</v>
+        <v>7.93679</v>
       </c>
       <c r="C65" t="n">
-        <v>6049.55</v>
+        <v>7936.79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98493</v>
+        <v>1.98548</v>
       </c>
       <c r="B66" t="n">
-        <v>5.976649999999999</v>
+        <v>7.726350000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>5976.65</v>
+        <v>7726.35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01616</v>
+        <v>2.0164</v>
       </c>
       <c r="B67" t="n">
-        <v>5.912590000000001</v>
+        <v>7.5817</v>
       </c>
       <c r="C67" t="n">
-        <v>5912.59</v>
+        <v>7581.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04693</v>
+        <v>2.04724</v>
       </c>
       <c r="B68" t="n">
-        <v>5.800380000000001</v>
+        <v>7.46125</v>
       </c>
       <c r="C68" t="n">
-        <v>5800.38</v>
+        <v>7461.25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07769</v>
+        <v>2.0786</v>
       </c>
       <c r="B69" t="n">
-        <v>5.72376</v>
+        <v>7.3634</v>
       </c>
       <c r="C69" t="n">
-        <v>5723.76</v>
+        <v>7363.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10882</v>
+        <v>2.10933</v>
       </c>
       <c r="B70" t="n">
-        <v>5.64167</v>
+        <v>7.20884</v>
       </c>
       <c r="C70" t="n">
-        <v>5641.67</v>
+        <v>7208.84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.1399</v>
+        <v>2.14055</v>
       </c>
       <c r="B71" t="n">
-        <v>5.58882</v>
+        <v>7.09675</v>
       </c>
       <c r="C71" t="n">
-        <v>5588.82</v>
+        <v>7096.75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17097</v>
+        <v>2.17163</v>
       </c>
       <c r="B72" t="n">
-        <v>5.49521</v>
+        <v>6.98939</v>
       </c>
       <c r="C72" t="n">
-        <v>5495.21</v>
+        <v>6989.39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20196</v>
+        <v>2.20269</v>
       </c>
       <c r="B73" t="n">
-        <v>5.44919</v>
+        <v>6.89127</v>
       </c>
       <c r="C73" t="n">
-        <v>5449.19</v>
+        <v>6891.27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23265</v>
+        <v>2.23322</v>
       </c>
       <c r="B74" t="n">
-        <v>5.36268</v>
+        <v>6.796819999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>5362.68</v>
+        <v>6796.82</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26413</v>
+        <v>2.26442</v>
       </c>
       <c r="B75" t="n">
-        <v>5.31346</v>
+        <v>6.70582</v>
       </c>
       <c r="C75" t="n">
-        <v>5313.46</v>
+        <v>6705.82</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.2956</v>
+        <v>2.29589</v>
       </c>
       <c r="B76" t="n">
-        <v>5.23516</v>
+        <v>6.59932</v>
       </c>
       <c r="C76" t="n">
-        <v>5235.16</v>
+        <v>6599.32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32595</v>
+        <v>2.3268</v>
       </c>
       <c r="B77" t="n">
-        <v>5.19875</v>
+        <v>6.530460000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>5198.75</v>
+        <v>6530.46</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35601</v>
+        <v>2.35665</v>
       </c>
       <c r="B78" t="n">
-        <v>5.14767</v>
+        <v>6.43098</v>
       </c>
       <c r="C78" t="n">
-        <v>5147.67</v>
+        <v>6430.98</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.388</v>
+        <v>2.38732</v>
       </c>
       <c r="B79" t="n">
-        <v>5.09584</v>
+        <v>6.37802</v>
       </c>
       <c r="C79" t="n">
-        <v>5095.84</v>
+        <v>6378.02</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41998</v>
+        <v>2.41804</v>
       </c>
       <c r="B80" t="n">
-        <v>5.02398</v>
+        <v>6.35757</v>
       </c>
       <c r="C80" t="n">
-        <v>5023.98</v>
+        <v>6357.57</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45055</v>
+        <v>2.44876</v>
       </c>
       <c r="B81" t="n">
-        <v>4.98862</v>
+        <v>6.37004</v>
       </c>
       <c r="C81" t="n">
-        <v>4988.62</v>
+        <v>6370.04</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48042</v>
+        <v>2.47947</v>
       </c>
       <c r="B82" t="n">
-        <v>4.942270000000001</v>
+        <v>6.33884</v>
       </c>
       <c r="C82" t="n">
-        <v>4942.27</v>
+        <v>6338.84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51031</v>
+        <v>2.50811</v>
       </c>
       <c r="B83" t="n">
-        <v>4.87362</v>
+        <v>6.34172</v>
       </c>
       <c r="C83" t="n">
-        <v>4873.62</v>
+        <v>6341.72</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54014</v>
+        <v>2.53628</v>
       </c>
       <c r="B84" t="n">
-        <v>4.818350000000001</v>
+        <v>6.316050000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>4818.35</v>
+        <v>6316.05</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56831</v>
+        <v>2.56444</v>
       </c>
       <c r="B85" t="n">
-        <v>4.852279999999999</v>
+        <v>6.28612</v>
       </c>
       <c r="C85" t="n">
-        <v>4852.28</v>
+        <v>6286.12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.59935</v>
+        <v>2.5926</v>
       </c>
       <c r="B86" t="n">
-        <v>4.843640000000001</v>
+        <v>6.25346</v>
       </c>
       <c r="C86" t="n">
-        <v>4843.64</v>
+        <v>6253.46</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63453</v>
+        <v>2.62582</v>
       </c>
       <c r="B87" t="n">
-        <v>4.80324</v>
+        <v>6.22257</v>
       </c>
       <c r="C87" t="n">
-        <v>4803.24</v>
+        <v>6222.57</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66973</v>
+        <v>2.66097</v>
       </c>
       <c r="B88" t="n">
-        <v>4.81711</v>
+        <v>6.18415</v>
       </c>
       <c r="C88" t="n">
-        <v>4817.11</v>
+        <v>6184.15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70226</v>
+        <v>2.69543</v>
       </c>
       <c r="B89" t="n">
-        <v>4.779949999999999</v>
+        <v>6.152640000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>4779.95</v>
+        <v>6152.64</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73426</v>
+        <v>2.72757</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75192</v>
+        <v>6.09797</v>
       </c>
       <c r="C90" t="n">
-        <v>4751.92</v>
+        <v>6097.97</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76626</v>
+        <v>2.75957</v>
       </c>
       <c r="B91" t="n">
-        <v>4.7511</v>
+        <v>6.07161</v>
       </c>
       <c r="C91" t="n">
-        <v>4751.1</v>
+        <v>6071.61</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79826</v>
+        <v>2.79157</v>
       </c>
       <c r="B92" t="n">
-        <v>4.731680000000001</v>
+        <v>6.0385</v>
       </c>
       <c r="C92" t="n">
-        <v>4731.68</v>
+        <v>6038.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83026</v>
+        <v>2.82357</v>
       </c>
       <c r="B93" t="n">
-        <v>4.71779</v>
+        <v>5.98725</v>
       </c>
       <c r="C93" t="n">
-        <v>4717.79</v>
+        <v>5987.25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86226</v>
+        <v>2.85557</v>
       </c>
       <c r="B94" t="n">
-        <v>4.6879</v>
+        <v>5.95526</v>
       </c>
       <c r="C94" t="n">
-        <v>4687.9</v>
+        <v>5955.26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89426</v>
+        <v>2.88757</v>
       </c>
       <c r="B95" t="n">
-        <v>4.6549</v>
+        <v>5.91405</v>
       </c>
       <c r="C95" t="n">
-        <v>4654.9</v>
+        <v>5914.05</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92626</v>
+        <v>2.91957</v>
       </c>
       <c r="B96" t="n">
-        <v>4.63254</v>
+        <v>5.881270000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>4632.54</v>
+        <v>5881.27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95536</v>
+        <v>2.95123</v>
       </c>
       <c r="B97" t="n">
-        <v>4.59342</v>
+        <v>5.83045</v>
       </c>
       <c r="C97" t="n">
-        <v>4593.42</v>
+        <v>5830.45</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98416</v>
+        <v>2.98047</v>
       </c>
       <c r="B98" t="n">
-        <v>4.55175</v>
+        <v>5.809310000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>4551.75</v>
+        <v>5809.31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01296</v>
+        <v>3.00933</v>
       </c>
       <c r="B99" t="n">
-        <v>4.52033</v>
+        <v>5.76457</v>
       </c>
       <c r="C99" t="n">
-        <v>4520.33</v>
+        <v>5764.57</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04176</v>
+        <v>3.03814</v>
       </c>
       <c r="B100" t="n">
-        <v>4.5404</v>
+        <v>5.751720000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>4540.4</v>
+        <v>5751.72</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07056</v>
+        <v>3.06694</v>
       </c>
       <c r="B101" t="n">
-        <v>4.48086</v>
+        <v>5.69793</v>
       </c>
       <c r="C101" t="n">
-        <v>4480.86</v>
+        <v>5697.93</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09936</v>
+        <v>3.09574</v>
       </c>
       <c r="B102" t="n">
-        <v>4.460850000000001</v>
+        <v>5.68179</v>
       </c>
       <c r="C102" t="n">
-        <v>4460.85</v>
+        <v>5681.79</v>
       </c>
     </row>
   </sheetData>
